--- a/project-management/wbs/wbs-gantt-chart.xlsx
+++ b/project-management/wbs/wbs-gantt-chart.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panzer4\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599E6A1C-F71D-41A1-8C3C-E375B2396EC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435032EC-C914-45C4-9678-F9A2835BA343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理表" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>ワークタイトル</t>
     <phoneticPr fontId="3"/>
@@ -572,6 +569,15 @@
     <xf numFmtId="179" fontId="2" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -581,17 +587,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,22 +1008,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="H2" s="20">
         <f>H3</f>
         <v>43489</v>
@@ -1543,11 +1540,11 @@
       </c>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="19" t="s">
         <v>1</v>
       </c>
@@ -9196,13 +9193,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9213,175 +9210,175 @@
       <c r="C3" s="3">
         <v>43491</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="50">
         <f>WEEKDAY(C3,1)</f>
         <v>7</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="3">
         <v>43492</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="50">
         <f t="shared" ref="D4:D12" si="0">WEEKDAY(C4,1)</f>
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="3">
         <v>43498</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="3">
         <v>43499</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="3">
         <v>43505</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="3">
         <v>43506</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="3">
         <v>43512</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="3">
         <v>43513</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="3">
         <v>43519</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="3">
         <v>43520</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="55"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="55"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="55"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="55"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="55"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="55"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="55"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="55"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
